--- a/Python/PlayPython/PlayPython.xlsx
+++ b/Python/PlayPython/PlayPython.xlsx
@@ -1,111 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raymondk\Desktop\Study\Python\PlayPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F44C25-EDA8-4B38-BD1D-8C822D897AFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F00AAE-E8DC-4E0F-AC0C-37201311D800}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3090" windowWidth="18120" windowHeight="9285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Alpha</t>
+    <t>x</t>
   </si>
   <si>
-    <t xml:space="preserve">Bravo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charli </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delta </t>
-  </si>
-  <si>
-    <t>Echo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foxtrot </t>
-  </si>
-  <si>
-    <t>Gulf</t>
-  </si>
-  <si>
-    <t>Hotel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Julet </t>
-  </si>
-  <si>
-    <t>kilo</t>
-  </si>
-  <si>
-    <t>Lima</t>
-  </si>
-  <si>
-    <t>Mike</t>
-  </si>
-  <si>
-    <t>November</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oscar </t>
-  </si>
-  <si>
-    <t>Papa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qubeq </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Romeo </t>
-  </si>
-  <si>
-    <t>Siara</t>
-  </si>
-  <si>
-    <t>Tango</t>
-  </si>
-  <si>
-    <t>Uniform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Victor </t>
-  </si>
-  <si>
-    <t>Wiskey</t>
-  </si>
-  <si>
-    <t>Xray</t>
-  </si>
-  <si>
-    <t>Zulu</t>
-  </si>
-  <si>
-    <t>Ass</t>
-  </si>
-  <si>
-    <t>Hol</t>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -423,147 +356,149 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A27"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="A14:XFD14"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:B14" si="0">A2*4</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f t="shared" ref="A3:A14" si="1">A2+2</f>
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>24</v>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
